--- a/GameGetter/Data/Input/EpicGameList.xlsx
+++ b/GameGetter/Data/Input/EpicGameList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Revature\201019-UTA0UiPath\Team3-P2\GameGetter\Data\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vrobw\Desktop\Revature\Team3-P2\GameGetter\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6B54920-130F-4822-8C80-7BF07DADA879}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A66CD9-6149-4659-9739-1A7294AC83EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5190" yWindow="3300" windowWidth="28800" windowHeight="15435" xr2:uid="{73978012-A473-4EE0-9490-EFA92E352DB3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{73978012-A473-4EE0-9490-EFA92E352DB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>Title</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>Cubiscape 2</t>
+  </si>
+  <si>
+    <t>Meant To Fail</t>
   </si>
 </sst>
 </file>
@@ -474,167 +477,172 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35EAB471-FBD2-4E0B-9366-A5F6F191FDA3}">
-  <dimension ref="A1:A31"/>
+  <dimension ref="A1:A32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/GameGetter/Data/Input/EpicGameList.xlsx
+++ b/GameGetter/Data/Input/EpicGameList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <x:si>
     <x:t>Title</x:t>
   </x:si>
@@ -49,13 +49,88 @@
     <x:t>Title_2_1</x:t>
   </x:si>
   <x:si>
+    <x:t>URL_1_1</x:t>
+  </x:si>
+  <x:si>
     <x:t>Status_2_1</x:t>
   </x:si>
   <x:si>
-    <x:t>The Cycle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.epicgames.com/store/en-US/product/thecycle/home</x:t>
+    <x:t>Title_1_1_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Status_1_1_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Title_2_1_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>URL_1_1_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Status_2_1_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Title_1_1_1_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Status_1_1_1_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Title_2_1_1_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>URL_1_1_1_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Status_2_1_1_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Title_1_1_1_1_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Status_1_1_1_1_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Title_2_1_1_1_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>URL_1_1_1_1_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Status_2_1_1_1_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Title_1_1_1_1_1_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Status_1_1_1_1_1_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Title_2_1_1_1_1_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>URL_1_1_1_1_1_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Status_2_1_1_1_1_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Title_1_1_1_1_1_1_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Status_1_1_1_1_1_1_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Title_2_1_1_1_1_1_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Status_2_1_1_1_1_1_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Trackmania</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.epicgames.com/store/en-US/product/trackmania/home</x:t>
   </x:si>
   <x:si>
     <x:t>Success</x:t>
@@ -412,13 +487,13 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:L2"/>
+  <x:dimension ref="A1:AK2"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:12">
+    <x:row r="1" spans="1:37">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -455,22 +530,97 @@
       <x:c r="L1" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
+      <x:c r="M1" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="N1" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="O1" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="P1" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="Q1" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="R1" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="S1" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="T1" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="U1" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="V1" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="W1" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="X1" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="Y1" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="Z1" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="AA1" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="AB1" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="AC1" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="AD1" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="AE1" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="AF1" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="AG1" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AH1" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="AI1" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="AJ1" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="AK1" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
     </x:row>
-    <x:row r="2" spans="1:12">
+    <x:row r="2" spans="1:37">
       <x:c r="A2" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/GameGetter/Data/Input/EpicGameList.xlsx
+++ b/GameGetter/Data/Input/EpicGameList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <x:si>
     <x:t>Title</x:t>
   </x:si>
@@ -124,13 +124,28 @@
     <x:t>Title_2_1_1_1_1_1_1</x:t>
   </x:si>
   <x:si>
+    <x:t>URL_1_1_1_1_1_1_1</x:t>
+  </x:si>
+  <x:si>
     <x:t>Status_2_1_1_1_1_1_1</x:t>
   </x:si>
   <x:si>
-    <x:t>Trackmania</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.epicgames.com/store/en-US/product/trackmania/home</x:t>
+    <x:t>Title_1_1_1_1_1_1_1_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Status_1_1_1_1_1_1_1_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Title_2_1_1_1_1_1_1_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Status_2_1_1_1_1_1_1_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Might &amp; Magic: Chess Royale</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.epicgames.com/store/en-US/product/might-and-magic-chess-royale</x:t>
   </x:si>
   <x:si>
     <x:t>Success</x:t>
@@ -487,13 +502,13 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:AK2"/>
+  <x:dimension ref="A1:AP2"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:37">
+    <x:row r="1" spans="1:42">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -605,22 +620,37 @@
       <x:c r="AK1" s="0" t="s">
         <x:v>36</x:v>
       </x:c>
+      <x:c r="AL1" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AM1" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="AN1" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="AO1" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AP1" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
     </x:row>
-    <x:row r="2" spans="1:37">
+    <x:row r="2" spans="1:42">
       <x:c r="A2" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
